--- a/data.xlsx
+++ b/data.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data 2" sheetId="2" r:id="rId1"/>
+    <sheet name="Data 1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>average wait time</t>
   </si>
@@ -43,14 +43,126 @@
   </si>
   <si>
     <t>altered downtime</t>
+  </si>
+  <si>
+    <t>total calls: 50</t>
+  </si>
+  <si>
+    <t>simulation stops after 24 hours</t>
+  </si>
+  <si>
+    <t>calls handled</t>
+  </si>
+  <si>
+    <r>
+      <t>italics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>means unsure</t>
+    </r>
+  </si>
+  <si>
+    <t>It seems that the total downtime is so close every time that the number of calls handled is never changed. However, the number of calls stacked up does change, resulting in a higher average wait time for more calls stacked up.</t>
+  </si>
+  <si>
+    <t>finishing queue</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>handled 47 calls!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">calls incoming </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(calls handled always 46)</t>
+    </r>
+  </si>
+  <si>
+    <t>interesting to compare with the above</t>
+  </si>
+  <si>
+    <t>Most of the total downtime is at the beginning when waiting for first call to come in</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Mean waiting time</t>
+  </si>
+  <si>
+    <t>Max waiting time</t>
+  </si>
+  <si>
+    <t>Min waiting time</t>
+  </si>
+  <si>
+    <t>Mean downtime</t>
+  </si>
+  <si>
+    <t>Max downtime</t>
+  </si>
+  <si>
+    <t>Min downtime</t>
+  </si>
+  <si>
+    <t>Range waiting time</t>
+  </si>
+  <si>
+    <t>Range downtime</t>
+  </si>
+  <si>
+    <t>Median waiting time</t>
+  </si>
+  <si>
+    <t>Median downtime</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>The average waiting time generally increases as the program goes on (maybe make an average waiting time against time graph?)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -74,12 +186,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -89,7 +273,1205 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>average wait time against</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>calls incoming</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>calls incoming against average wait time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Data 2'!$E$11:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Data 2'!$A$11:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="93537024"/>
+        <c:axId val="64126976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="93537024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>calls incoming</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64126976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="64126976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> wait time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93537024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>average wait time against total downtime</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Data 2'!$C$2:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Data 2'!$A$2:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="95373952"/>
+        <c:axId val="100934400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="95373952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> downtime</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100934400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="100934400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> wait time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95373952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect l="1391" t="14844" r="54392" b="6510"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7239000" y="266699"/>
+          <a:ext cx="3000375" cy="3000375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>5630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10077449" y="1148630"/>
+          <a:ext cx="1200151" cy="1070695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>figure 4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>increase</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> then decrease in queue length</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2051" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect l="1391" t="14974" r="54392" b="6380"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11772899" y="266699"/>
+          <a:ext cx="3000375" cy="3000375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13039724" y="1120055"/>
+          <a:ext cx="1200151" cy="1070695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>figure 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>lots of calls stacked up at the end</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>221494</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2052" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect l="659" t="13021" r="62298" b="21354"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14858999" y="257174"/>
+          <a:ext cx="3021845" cy="3009901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>43730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16125824" y="1186730"/>
+          <a:ext cx="1200151" cy="1156420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>figure 6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>three more</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> incoming calls per day than most makes a high queue</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2053" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect l="659" t="13021" r="62445" b="21354"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17973675" y="257175"/>
+          <a:ext cx="3009900" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19297650" y="1228725"/>
+          <a:ext cx="1200151" cy="1156420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>figure 7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>compare with figure</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> 6...</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1857375</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1771650</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.19583</cdr:x>
+      <cdr:y>0.36458</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="895350" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>graph</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t> 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t>shows how calls incoming is very important</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01875</cdr:x>
+      <cdr:y>0.81944</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21875</cdr:x>
+      <cdr:y>0.95486</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="85725" y="2247900"/>
+          <a:ext cx="914400" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.19583</cdr:x>
+      <cdr:y>0.36458</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="895350" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>graph</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t> 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t>shows how downtime isn't that important</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -712,10 +2094,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>0.39</v>
+      </c>
+      <c r="B2">
+        <v>18.3</v>
+      </c>
+      <c r="C2">
+        <v>0.75</v>
+      </c>
+      <c r="E2" s="2">
+        <v>46</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>0.13</v>
+      </c>
+      <c r="B3">
+        <v>6.15</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B4">
+        <v>12.95</v>
+      </c>
+      <c r="C4">
+        <v>0.65</v>
+      </c>
+      <c r="E4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>0.27</v>
+      </c>
+      <c r="B5">
+        <v>12.5</v>
+      </c>
+      <c r="C5">
+        <v>0.65</v>
+      </c>
+      <c r="E5">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>0.62</v>
+      </c>
+      <c r="B6">
+        <v>29.9</v>
+      </c>
+      <c r="C6">
+        <v>0.45</v>
+      </c>
+      <c r="E6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>0.54</v>
+      </c>
+      <c r="B7">
+        <v>26.5</v>
+      </c>
+      <c r="C7">
+        <v>0.45</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>46</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>0.69</v>
+      </c>
+      <c r="B8">
+        <v>33.9</v>
+      </c>
+      <c r="C8">
+        <v>0.6</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>0.43</v>
+      </c>
+      <c r="B9">
+        <v>20.2</v>
+      </c>
+      <c r="C9">
+        <v>0.6</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B11">
+        <v>12.95</v>
+      </c>
+      <c r="C11">
+        <v>0.6</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>0.79</v>
+      </c>
+      <c r="B12">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>49</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="B13">
+        <v>28.15</v>
+      </c>
+      <c r="C13">
+        <v>0.4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B14">
+        <v>28.65</v>
+      </c>
+      <c r="C14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>0.36</v>
+      </c>
+      <c r="B15">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>0.25</v>
+      </c>
+      <c r="B16">
+        <v>12.1</v>
+      </c>
+      <c r="C16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>0.25</v>
+      </c>
+      <c r="B17">
+        <v>11.75</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A18">
+        <v>0.32</v>
+      </c>
+      <c r="B18">
+        <v>15.5</v>
+      </c>
+      <c r="C18">
+        <v>0.65</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>0.36</v>
+      </c>
+      <c r="B19">
+        <v>17.8</v>
+      </c>
+      <c r="C19">
+        <v>0.65</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>48</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="M19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>0.43</v>
+      </c>
+      <c r="B20">
+        <v>21.3</v>
+      </c>
+      <c r="C20">
+        <v>0.4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>48</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="7">
+        <f>AVERAGE(A2:A53)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="M20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>0.39</v>
+      </c>
+      <c r="B21">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C21">
+        <v>0.6</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>47</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="7">
+        <f>MEDIAN(A2:A50)</f>
+        <v>0.39</v>
+      </c>
+      <c r="M21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>0.82</v>
+      </c>
+      <c r="B22">
+        <v>40.9</v>
+      </c>
+      <c r="C22">
+        <v>0.4</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>49</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="7">
+        <f>MAX(A2:A53)</f>
+        <v>0.82</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="H23" s="3"/>
+      <c r="I23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="7">
+        <f>MIN(A2:A53)</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="I24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="7">
+        <f>J22-J23</f>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="I25" s="6"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="I26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="7">
+        <f>AVERAGE(C2:C53)</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="I27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="7">
+        <f>MEDIAN(C2:C50)</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="I28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="7">
+        <f>MAX(C2:C53)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="I29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="7">
+        <f>MIN(C2:C53)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="10">
+        <f>J28-J29</f>
+        <v>0.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
@@ -730,22 +2639,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
@@ -790,6 +2699,9 @@
         <f t="shared" ref="E3:E22" si="0">(29-D3) + C3</f>
         <v>3.9500000000000015</v>
       </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
@@ -986,18 +2898,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Data 1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>average wait time</t>
   </si>
@@ -140,12 +140,15 @@
   <si>
     <t>The average waiting time generally increases as the program goes on (maybe make an average waiting time against time graph?)</t>
   </si>
+  <si>
+    <t>not many calls handled hence high downtime</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,12 +273,27 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -303,11 +321,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -322,6 +343,8 @@
           <c:trendline>
             <c:trendlineType val="linear"/>
             <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -364,6 +387,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -410,18 +436,31 @@
                 <c:pt idx="11">
                   <c:v>0.82</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="93537024"/>
-        <c:axId val="64126976"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="89433216"/>
+        <c:axId val="89433792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93537024"/>
+        <c:axId val="89433216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -440,18 +479,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64126976"/>
+        <c:crossAx val="89433792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64126976"/>
+        <c:axId val="89433792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -476,15 +519,20 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93537024"/>
+        <c:crossAx val="89433216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -497,15 +545,28 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -583,6 +644,9 @@
                 <c:pt idx="20">
                   <c:v>0.4</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -652,19 +716,32 @@
                 <c:pt idx="20">
                   <c:v>0.82</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.44</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="95373952"/>
-        <c:axId val="100934400"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="89436672"/>
+        <c:axId val="89437248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95373952"/>
+        <c:axId val="89436672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -688,18 +765,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100934400"/>
+        <c:crossAx val="89437248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100934400"/>
+        <c:axId val="89437248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -724,15 +805,20 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95373952"/>
+        <c:crossAx val="89436672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1288,6 +1374,329 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3838575" y="9029700"/>
+          <a:ext cx="1162050" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>graph</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shows how downtime isn't that important, perhaps because it has a correlation with calls incoming</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8401050" y="9115425"/>
+          <a:ext cx="1162050" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>graph</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shows how calls incoming is very important (just one extra call can have a massive impact)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>388434</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="886" t="8149" r="78278" b="54717"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21095784" y="257177"/>
+          <a:ext cx="2973890" cy="2981324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>184870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22374225" y="1314450"/>
+          <a:ext cx="1200151" cy="1156420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>figure 8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>high downtime due</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> to low calls incoming</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1366,20 +1775,6 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1"/>
-            <a:t>graph</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
-            <a:t> 2</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
-            <a:t>shows how calls incoming is very important</a:t>
-          </a:r>
           <a:endParaRPr lang="en-GB" sz="1100" b="0"/>
         </a:p>
       </cdr:txBody>
@@ -1418,52 +1813,6 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.19583</cdr:x>
-      <cdr:y>0.36458</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 2"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="0"/>
-          <a:ext cx="895350" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1"/>
-            <a:t>graph</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
-            <a:t> 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
-            <a:t>shows how downtime isn't that important</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -1884,6 +2233,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1918,6 +2268,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2093,14 +2444,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
@@ -2112,7 +2463,7 @@
     <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2138,7 +2489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.39</v>
       </c>
@@ -2158,7 +2509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.13</v>
       </c>
@@ -2175,7 +2526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.28000000000000003</v>
       </c>
@@ -2189,7 +2540,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.27</v>
       </c>
@@ -2206,7 +2557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.62</v>
       </c>
@@ -2220,7 +2571,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.54</v>
       </c>
@@ -2243,7 +2594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.69</v>
       </c>
@@ -2260,7 +2611,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.43</v>
       </c>
@@ -2277,12 +2628,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.28000000000000003</v>
       </c>
@@ -2299,7 +2650,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.79</v>
       </c>
@@ -2319,7 +2670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.56999999999999995</v>
       </c>
@@ -2339,7 +2690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.57999999999999996</v>
       </c>
@@ -2359,7 +2710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.36</v>
       </c>
@@ -2376,7 +2727,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.25</v>
       </c>
@@ -2396,7 +2747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.25</v>
       </c>
@@ -2416,7 +2767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.32</v>
       </c>
@@ -2433,7 +2784,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.36</v>
       </c>
@@ -2457,7 +2808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.43</v>
       </c>
@@ -2479,13 +2830,13 @@
       </c>
       <c r="J20" s="7">
         <f>AVERAGE(A2:A53)</f>
-        <v>0.4375</v>
+        <v>0.43761904761904757</v>
       </c>
       <c r="M20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.39</v>
       </c>
@@ -2513,7 +2864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.82</v>
       </c>
@@ -2544,7 +2895,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.44</v>
+      </c>
+      <c r="B23">
+        <v>21.35</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>45</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="6" t="s">
         <v>23</v>
@@ -2554,7 +2926,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I24" s="6" t="s">
         <v>27</v>
       </c>
@@ -2563,20 +2935,20 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I25" s="6"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I26" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="7">
         <f>AVERAGE(C2:C53)</f>
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I27" s="8" t="s">
         <v>30</v>
       </c>
@@ -2585,16 +2957,16 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I28" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J28" s="7">
         <f>MAX(C2:C53)</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I29" s="6" t="s">
         <v>26</v>
       </c>
@@ -2603,13 +2975,13 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1">
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I30" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J30" s="10">
         <f>J28-J29</f>
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2620,14 +2992,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
@@ -2638,7 +3010,7 @@
     <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2661,7 +3033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.11</v>
       </c>
@@ -2682,7 +3054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.54</v>
       </c>
@@ -2696,14 +3068,14 @@
         <v>25.65</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E22" si="0">(29-D3) + C3</f>
+        <f t="shared" ref="E3:E13" si="0">(29-D3) + C3</f>
         <v>3.9500000000000015</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.75</v>
       </c>
@@ -2721,7 +3093,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.65</v>
       </c>
@@ -2742,7 +3114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.41</v>
       </c>
@@ -2760,7 +3132,7 @@
         <v>3.8999999999999986</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.17</v>
       </c>
@@ -2781,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.23</v>
       </c>
@@ -2802,7 +3174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.65</v>
       </c>
@@ -2820,7 +3192,7 @@
         <v>3.9499999999999984</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11.95</v>
       </c>
@@ -2838,7 +3210,7 @@
         <v>3.9000000000000008</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.47</v>
       </c>
@@ -2856,7 +3228,7 @@
         <v>3.9499999999999984</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.8</v>
       </c>
@@ -2874,7 +3246,7 @@
         <v>3.8999999999999986</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.56999999999999995</v>
       </c>
@@ -2902,12 +3274,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Data 1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -81,21 +81,6 @@
     <t>handled 47 calls!</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">calls incoming </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(calls handled always 46)</t>
-    </r>
-  </si>
-  <si>
     <t>interesting to compare with the above</t>
   </si>
   <si>
@@ -143,12 +128,27 @@
   <si>
     <t>not many calls handled hence high downtime</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">calls incoming </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(calls handled usually 46)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -267,6 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -283,17 +284,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -321,14 +312,11 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -343,15 +331,13 @@
           <c:trendline>
             <c:trendlineType val="linear"/>
             <c:forward val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data 2'!$E$11:$E$24</c:f>
+              <c:f>'Data 2'!$E$11:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>46</c:v>
                 </c:pt>
@@ -390,16 +376,97 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data 2'!$A$11:$A$23</c:f>
+              <c:f>'Data 2'!$A$11:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
@@ -438,29 +505,101 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="89433216"/>
-        <c:axId val="89433792"/>
+        <c:dLbls/>
+        <c:axId val="48119808"/>
+        <c:axId val="48121728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89433216"/>
+        <c:axId val="48119808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -479,22 +618,18 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89433792"/>
+        <c:crossAx val="48121728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89433792"/>
+        <c:axId val="48121728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -519,24 +654,20 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89433216"/>
+        <c:crossAx val="48119808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -545,28 +676,15 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -580,10 +698,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data 2'!$C$2:$C$24</c:f>
+              <c:f>'Data 2'!$C$2:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0.75</c:v>
                 </c:pt>
@@ -646,16 +764,97 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data 2'!$A$2:$A$23</c:f>
+              <c:f>'Data 2'!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0.39</c:v>
                 </c:pt>
@@ -718,30 +917,102 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="89436672"/>
-        <c:axId val="89437248"/>
+        <c:dLbls/>
+        <c:axId val="48135168"/>
+        <c:axId val="48489216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89436672"/>
+        <c:axId val="48135168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -765,22 +1036,18 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89437248"/>
+        <c:crossAx val="48489216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89437248"/>
+        <c:axId val="48489216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -805,27 +1072,382 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89436672"/>
+        <c:crossAx val="48135168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>downtime against calls incoming</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Data 2'!$E$11:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Data 2'!$C$11:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="57191040"/>
+        <c:axId val="57189504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="57191040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>calls incoming</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57189504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="57189504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>downtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57191040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1316,15 +1938,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1857375</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1346,15 +1968,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1771650</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1376,15 +1998,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1394,7 +2016,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3838575" y="9029700"/>
+          <a:off x="5781675" y="9410700"/>
           <a:ext cx="1162050" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1483,15 +2105,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1866900</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1501,7 +2123,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8401050" y="9115425"/>
+          <a:off x="10344150" y="9496425"/>
           <a:ext cx="1162050" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1606,7 +2228,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:srcRect l="886" t="8149" r="78278" b="54717"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -1690,6 +2312,319 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
             <a:t> to low calls incoming</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15049500" y="9458325"/>
+          <a:ext cx="1657350" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>graph</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shows how, in general, calls incoming is inversely proportional to downtime. note how part of the downtime is due to having to wait for a call at the start, and cannot be prevented</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1447800" cy="981075"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6524625" y="1447799"/>
+          <a:ext cx="1447800" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>calls can only have time to handle 47 calls</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> if their downtime is less than or equal to 4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>359843</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect l="512" t="22266" r="69985" b="25390"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="24174451" y="257174"/>
+          <a:ext cx="2988742" cy="2981325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25460325" y="1257300"/>
+          <a:ext cx="1200151" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>figure 9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>high calls incoming</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> makes a constant increase that is increasingly hard to deal with</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
@@ -2233,7 +3168,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2268,7 +3202,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2444,14 +3377,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="H32" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
@@ -2463,7 +3396,7 @@
     <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +3422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0.39</v>
       </c>
@@ -2509,7 +3442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>0.13</v>
       </c>
@@ -2526,7 +3459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>0.28000000000000003</v>
       </c>
@@ -2540,7 +3473,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>0.27</v>
       </c>
@@ -2557,7 +3490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>0.62</v>
       </c>
@@ -2571,7 +3504,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>0.54</v>
       </c>
@@ -2594,7 +3527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>0.69</v>
       </c>
@@ -2611,7 +3544,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>0.43</v>
       </c>
@@ -2628,12 +3561,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>0.28000000000000003</v>
       </c>
@@ -2650,7 +3583,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>0.79</v>
       </c>
@@ -2670,7 +3603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>0.56999999999999995</v>
       </c>
@@ -2690,7 +3623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>0.57999999999999996</v>
       </c>
@@ -2707,10 +3640,10 @@
         <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>0.36</v>
       </c>
@@ -2727,7 +3660,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>0.25</v>
       </c>
@@ -2744,10 +3677,10 @@
         <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>0.25</v>
       </c>
@@ -2764,10 +3697,10 @@
         <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1">
       <c r="A18">
         <v>0.32</v>
       </c>
@@ -2784,7 +3717,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>0.36</v>
       </c>
@@ -2801,14 +3734,14 @@
         <v>48</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" s="5"/>
       <c r="M19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>0.43</v>
       </c>
@@ -2826,17 +3759,17 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" s="7">
         <f>AVERAGE(A2:A53)</f>
-        <v>0.43761904761904757</v>
+        <v>0.44979166666666681</v>
       </c>
       <c r="M20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>0.39</v>
       </c>
@@ -2854,17 +3787,17 @@
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J21" s="7">
         <f>MEDIAN(A2:A50)</f>
-        <v>0.39</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="M21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>0.82</v>
       </c>
@@ -2885,17 +3818,17 @@
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" s="7">
         <f>MAX(A2:A53)</f>
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="M22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>0.44</v>
       </c>
@@ -2915,73 +3848,521 @@
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J23" s="7">
         <f>MIN(A2:A53)</f>
         <v>0.13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>0.32</v>
+      </c>
+      <c r="B24">
+        <v>15.55</v>
+      </c>
+      <c r="C24">
+        <v>0.7</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>47</v>
+      </c>
       <c r="I24" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J24" s="7">
         <f>J22-J23</f>
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>0.31</v>
+      </c>
+      <c r="B25">
+        <v>14.7</v>
+      </c>
+      <c r="C25">
+        <v>0.8</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>46</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>0.41</v>
+      </c>
+      <c r="B26">
+        <v>19.95</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>48</v>
+      </c>
       <c r="I26" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J26" s="7">
         <f>AVERAGE(C2:C53)</f>
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.56041666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B27">
+        <v>14.15</v>
+      </c>
+      <c r="C27">
+        <v>0.45</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>48</v>
+      </c>
       <c r="I27" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J27" s="7">
         <f>MEDIAN(C2:C50)</f>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>0.9</v>
+      </c>
+      <c r="B28">
+        <v>44.75</v>
+      </c>
+      <c r="C28">
+        <v>0.45</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>49</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
       <c r="I28" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" s="7">
         <f>MAX(C2:C53)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>0.17</v>
+      </c>
+      <c r="B29">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C29">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>46</v>
+      </c>
       <c r="I29" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J29" s="7">
         <f>MIN(C2:C53)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A30">
+        <v>0.5</v>
+      </c>
+      <c r="B30">
+        <v>24.3</v>
+      </c>
+      <c r="C30">
+        <v>0.45</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>48</v>
+      </c>
       <c r="I30" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J30" s="10">
         <f>J28-J29</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>0.39</v>
+      </c>
+      <c r="B31">
+        <v>18.5</v>
+      </c>
+      <c r="C31">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>0.44</v>
+      </c>
+      <c r="B32">
+        <v>21.35</v>
+      </c>
+      <c r="C32">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>0.16</v>
+      </c>
+      <c r="B33">
+        <v>7.55</v>
+      </c>
+      <c r="C33">
+        <v>0.85</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>0.35</v>
+      </c>
+      <c r="B34">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.5</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B35">
+        <v>27.3</v>
+      </c>
+      <c r="C35">
+        <v>0.4</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>0.42</v>
+      </c>
+      <c r="B36">
+        <v>20.05</v>
+      </c>
+      <c r="C36">
+        <v>0.45</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>0.72</v>
+      </c>
+      <c r="B37">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C37">
+        <v>0.35</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>0.48</v>
+      </c>
+      <c r="B38">
+        <v>22.95</v>
+      </c>
+      <c r="C38">
+        <v>0.45</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>0.67</v>
+      </c>
+      <c r="B39">
+        <v>32.75</v>
+      </c>
+      <c r="C39">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>0.34</v>
+      </c>
+      <c r="B40">
+        <v>16.45</v>
+      </c>
+      <c r="C40">
         <v>0.6</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>0.87</v>
+      </c>
+      <c r="B41">
+        <v>42.4</v>
+      </c>
+      <c r="C41">
+        <v>0.4</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>0.44</v>
+      </c>
+      <c r="B42">
+        <v>21.1</v>
+      </c>
+      <c r="C42">
+        <v>0.5</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>0.27</v>
+      </c>
+      <c r="B43">
+        <v>13.05</v>
+      </c>
+      <c r="C43">
+        <v>0.5</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>0.21</v>
+      </c>
+      <c r="B44">
+        <v>9.75</v>
+      </c>
+      <c r="C44">
+        <v>0.7</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>0.44</v>
+      </c>
+      <c r="B45">
+        <v>20.95</v>
+      </c>
+      <c r="C45">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="B46">
+        <v>27.25</v>
+      </c>
+      <c r="C46">
+        <v>0.7</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>0.51</v>
+      </c>
+      <c r="B47">
+        <v>24.65</v>
+      </c>
+      <c r="C47">
+        <v>0.6</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>0.22</v>
+      </c>
+      <c r="B48">
+        <v>10.7</v>
+      </c>
+      <c r="C48">
+        <v>0.7</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>0.68</v>
+      </c>
+      <c r="B49">
+        <v>33.9</v>
+      </c>
+      <c r="C49">
+        <v>0.5</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="B50">
+        <v>37.15</v>
+      </c>
+      <c r="C50">
+        <v>0.6</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2992,14 +4373,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
@@ -3010,7 +4391,7 @@
     <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3033,7 +4414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0.11</v>
       </c>
@@ -3054,7 +4435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>0.54</v>
       </c>
@@ -3075,7 +4456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>0.75</v>
       </c>
@@ -3093,7 +4474,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>0.65</v>
       </c>
@@ -3114,7 +4495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>0.41</v>
       </c>
@@ -3132,7 +4513,7 @@
         <v>3.8999999999999986</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1.17</v>
       </c>
@@ -3153,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>0.23</v>
       </c>
@@ -3174,7 +4555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>0.65</v>
       </c>
@@ -3192,7 +4573,7 @@
         <v>3.9499999999999984</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>11.95</v>
       </c>
@@ -3210,7 +4591,7 @@
         <v>3.9000000000000008</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>0.47</v>
       </c>
@@ -3228,7 +4609,7 @@
         <v>3.9499999999999984</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>0.8</v>
       </c>
@@ -3246,7 +4627,7 @@
         <v>3.8999999999999986</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>0.56999999999999995</v>
       </c>
@@ -3274,12 +4655,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>average wait time</t>
   </si>
@@ -142,6 +142,12 @@
       </rPr>
       <t>(calls handled usually 46)</t>
     </r>
+  </si>
+  <si>
+    <t>altered downtime = 29 - time end + total downtime</t>
+  </si>
+  <si>
+    <t>29 is arbitrary</t>
   </si>
 </sst>
 </file>
@@ -591,12 +597,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="48119808"/>
-        <c:axId val="48121728"/>
+        <c:axId val="64901120"/>
+        <c:axId val="64903040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48119808"/>
+        <c:axId val="64901120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,12 +626,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48121728"/>
+        <c:crossAx val="64903040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48121728"/>
+        <c:axId val="64903040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -657,7 +662,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48119808"/>
+        <c:crossAx val="64901120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -667,7 +672,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1003,12 +1008,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="48135168"/>
-        <c:axId val="48489216"/>
+        <c:axId val="64923904"/>
+        <c:axId val="64970752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48135168"/>
+        <c:axId val="64923904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1039,12 +1043,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48489216"/>
+        <c:crossAx val="64970752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48489216"/>
+        <c:axId val="64970752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1079,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48135168"/>
+        <c:crossAx val="64923904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1085,7 +1089,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1376,11 +1380,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="57191040"/>
-        <c:axId val="57189504"/>
+        <c:axId val="66462080"/>
+        <c:axId val="66464000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57191040"/>
+        <c:axId val="66462080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,12 +1409,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57189504"/>
+        <c:crossAx val="66464000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57189504"/>
+        <c:axId val="66464000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,7 +1440,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57191040"/>
+        <c:crossAx val="66462080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1445,7 +1449,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2455,10 +2459,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1447800" cy="981075"/>
     <xdr:sp macro="" textlink="">
@@ -2468,7 +2472,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6524625" y="1447799"/>
+          <a:off x="6943725" y="1428749"/>
           <a:ext cx="1447800" cy="981075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2502,7 +2506,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t> if their downtime is less than or equal to 4</a:t>
+            <a:t> if their downtime is less than or equal to 4 (in green)</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
@@ -3380,8 +3384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H32" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4374,10 +4378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
@@ -4386,7 +4390,7 @@
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4575,10 +4579,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
+        <v>0.23</v>
+      </c>
+      <c r="B10">
         <v>11.95</v>
-      </c>
-      <c r="B10">
-        <v>0.23</v>
       </c>
       <c r="C10">
         <v>0.6</v>
@@ -4646,6 +4650,16 @@
       </c>
       <c r="F13">
         <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>average wait time</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>29 is arbitrary</t>
+  </si>
+  <si>
+    <t>Analysing data with just 47 incoming calls</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -597,11 +603,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="64901120"/>
-        <c:axId val="64903040"/>
+        <c:axId val="74141696"/>
+        <c:axId val="74143616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64901120"/>
+        <c:axId val="74141696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,12 +632,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64903040"/>
+        <c:crossAx val="74143616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64903040"/>
+        <c:axId val="74143616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,7 +668,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64901120"/>
+        <c:crossAx val="74141696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -672,7 +678,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1008,11 +1014,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="64923904"/>
-        <c:axId val="64970752"/>
+        <c:axId val="74164096"/>
+        <c:axId val="74182016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64923904"/>
+        <c:axId val="74164096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1043,12 +1049,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64970752"/>
+        <c:crossAx val="74182016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64970752"/>
+        <c:axId val="74182016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,7 +1085,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64923904"/>
+        <c:crossAx val="74164096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1089,7 +1095,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1380,11 +1386,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="66462080"/>
-        <c:axId val="66464000"/>
+        <c:axId val="100208640"/>
+        <c:axId val="100210560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66462080"/>
+        <c:axId val="100208640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,12 +1415,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66464000"/>
+        <c:crossAx val="100210560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66464000"/>
+        <c:axId val="100210560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,7 +1446,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66462080"/>
+        <c:crossAx val="100208640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1449,9 +1455,260 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>average wait time against total downtime (just 47 incoming</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> calls)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>average wait time against total downtime</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Data 2'!$C$55:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Data 2'!$A$55:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="57419264"/>
+        <c:axId val="57461760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="57419264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> downtime</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57461760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="57461760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> wait time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57419264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -2636,6 +2893,143 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5305425" y="14582775"/>
+          <a:ext cx="1162050" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>graph</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>same as graph 1 :(</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2760,6 +3154,43 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01875</cdr:x>
+      <cdr:y>0.81944</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21875</cdr:x>
+      <cdr:y>0.95486</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="85725" y="2247900"/>
+          <a:ext cx="914400" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3382,10 +3813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:AM71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3400,7 +3831,7 @@
     <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3426,7 +3857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:39">
       <c r="A2">
         <v>0.39</v>
       </c>
@@ -3445,8 +3876,11 @@
       <c r="H2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="AM2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
       <c r="A3">
         <v>0.13</v>
       </c>
@@ -3463,7 +3897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:39">
       <c r="A4">
         <v>0.28000000000000003</v>
       </c>
@@ -3477,7 +3911,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:39">
       <c r="A5">
         <v>0.27</v>
       </c>
@@ -3494,7 +3928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:39">
       <c r="A6">
         <v>0.62</v>
       </c>
@@ -3508,7 +3942,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:39">
       <c r="A7">
         <v>0.54</v>
       </c>
@@ -3531,7 +3965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:39">
       <c r="A8">
         <v>0.69</v>
       </c>
@@ -3548,7 +3982,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:39">
       <c r="A9">
         <v>0.43</v>
       </c>
@@ -3565,12 +3999,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:39">
       <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:39">
       <c r="A11">
         <v>0.28000000000000003</v>
       </c>
@@ -3587,7 +4021,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:39">
       <c r="A12">
         <v>0.79</v>
       </c>
@@ -3607,7 +4041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:39">
       <c r="A13">
         <v>0.56999999999999995</v>
       </c>
@@ -3627,7 +4061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:39">
       <c r="A14">
         <v>0.57999999999999996</v>
       </c>
@@ -3647,7 +4081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:39">
       <c r="A15">
         <v>0.36</v>
       </c>
@@ -3664,7 +4098,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:39">
       <c r="A16">
         <v>0.25</v>
       </c>
@@ -4367,6 +4801,300 @@
       </c>
       <c r="E50">
         <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>0.36</v>
+      </c>
+      <c r="B55">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="C55">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>0.25</v>
+      </c>
+      <c r="B56">
+        <v>12.1</v>
+      </c>
+      <c r="C56">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>0.25</v>
+      </c>
+      <c r="B57">
+        <v>11.75</v>
+      </c>
+      <c r="C57">
+        <v>0.5</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>0.32</v>
+      </c>
+      <c r="B58">
+        <v>15.5</v>
+      </c>
+      <c r="C58">
+        <v>0.65</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>0.39</v>
+      </c>
+      <c r="B59">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C59">
+        <v>0.6</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>0.32</v>
+      </c>
+      <c r="B60">
+        <v>15.55</v>
+      </c>
+      <c r="C60">
+        <v>0.7</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>0.39</v>
+      </c>
+      <c r="B61">
+        <v>18.5</v>
+      </c>
+      <c r="C61">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>0.44</v>
+      </c>
+      <c r="B62">
+        <v>21.35</v>
+      </c>
+      <c r="C62">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>0.35</v>
+      </c>
+      <c r="B63">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="C63">
+        <v>0.5</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>0.42</v>
+      </c>
+      <c r="B64">
+        <v>20.05</v>
+      </c>
+      <c r="C64">
+        <v>0.45</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>0.48</v>
+      </c>
+      <c r="B65">
+        <v>22.95</v>
+      </c>
+      <c r="C65">
+        <v>0.45</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>0.34</v>
+      </c>
+      <c r="B66">
+        <v>16.45</v>
+      </c>
+      <c r="C66">
+        <v>0.6</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>0.44</v>
+      </c>
+      <c r="B67">
+        <v>21.1</v>
+      </c>
+      <c r="C67">
+        <v>0.5</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>0.27</v>
+      </c>
+      <c r="B68">
+        <v>13.05</v>
+      </c>
+      <c r="C68">
+        <v>0.5</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="B69">
+        <v>27.25</v>
+      </c>
+      <c r="C69">
+        <v>0.7</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>0.51</v>
+      </c>
+      <c r="B70">
+        <v>24.65</v>
+      </c>
+      <c r="C70">
+        <v>0.6</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>0.22</v>
+      </c>
+      <c r="B71">
+        <v>10.7</v>
+      </c>
+      <c r="C71">
+        <v>0.7</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
